--- a/Fulcrum_FluidTX_Trunk/src/com/proj/suiteDOCS/testdata/DocumentRegistryTestData-Newtransmittal.xlsx
+++ b/Fulcrum_FluidTX_Trunk/src/com/proj/suiteDOCS/testdata/DocumentRegistryTestData-Newtransmittal.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="29">
   <si>
     <t>To</t>
   </si>
@@ -91,6 +91,21 @@
   </si>
   <si>
     <t>AutoTestUser</t>
+  </si>
+  <si>
+    <t>Approved</t>
+  </si>
+  <si>
+    <t>Comments for Request for Information</t>
+  </si>
+  <si>
+    <t>Request for Information</t>
+  </si>
+  <si>
+    <t>Issued for Approval</t>
+  </si>
+  <si>
+    <t>Issued for Information</t>
   </si>
 </sst>
 </file>
@@ -491,7 +506,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O2"/>
+  <dimension ref="A1:O5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -579,7 +594,7 @@
         <v>16</v>
       </c>
       <c r="F2" t="s">
-        <v>17</v>
+        <v>28</v>
       </c>
       <c r="H2" t="s">
         <v>18</v>
@@ -587,8 +602,92 @@
       <c r="L2" t="s">
         <v>21</v>
       </c>
-      <c r="M2" t="s">
+    </row>
+    <row r="3" spans="1:15">
+      <c r="A3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E3" t="s">
+        <v>16</v>
+      </c>
+      <c r="F3" t="s">
+        <v>17</v>
+      </c>
+      <c r="H3" t="s">
+        <v>18</v>
+      </c>
+      <c r="L3" t="s">
+        <v>21</v>
+      </c>
+      <c r="M3" t="s">
         <v>19</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15">
+      <c r="A4" t="s">
+        <v>22</v>
+      </c>
+      <c r="B4" t="s">
+        <v>23</v>
+      </c>
+      <c r="C4" t="s">
+        <v>5</v>
+      </c>
+      <c r="D4" t="s">
+        <v>7</v>
+      </c>
+      <c r="E4" t="s">
+        <v>16</v>
+      </c>
+      <c r="F4" t="s">
+        <v>26</v>
+      </c>
+      <c r="H4" t="s">
+        <v>18</v>
+      </c>
+      <c r="L4" t="s">
+        <v>21</v>
+      </c>
+      <c r="M4" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15">
+      <c r="A5" t="s">
+        <v>22</v>
+      </c>
+      <c r="B5" t="s">
+        <v>23</v>
+      </c>
+      <c r="C5" t="s">
+        <v>5</v>
+      </c>
+      <c r="D5" t="s">
+        <v>7</v>
+      </c>
+      <c r="E5" t="s">
+        <v>16</v>
+      </c>
+      <c r="F5" t="s">
+        <v>27</v>
+      </c>
+      <c r="H5" t="s">
+        <v>18</v>
+      </c>
+      <c r="L5" t="s">
+        <v>21</v>
+      </c>
+      <c r="M5" t="s">
+        <v>24</v>
       </c>
     </row>
   </sheetData>

--- a/Fulcrum_FluidTX_Trunk/src/com/proj/suiteDOCS/testdata/DocumentRegistryTestData-Newtransmittal.xlsx
+++ b/Fulcrum_FluidTX_Trunk/src/com/proj/suiteDOCS/testdata/DocumentRegistryTestData-Newtransmittal.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GITWS_Fluid_Sprint1\Fulcrum_FluidTX_Trunk\src\com\proj\suiteDOCS\testdata\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\FluidTXGWS_Sprint5\Fulcrum_FluidTX_Trunk\src\com\proj\suiteDOCS\testdata\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="35">
   <si>
     <t>To</t>
   </si>
@@ -78,9 +78,6 @@
     <t>Test 1 ta.docx</t>
   </si>
   <si>
-    <t>Comments for Issued for Review</t>
-  </si>
-  <si>
     <t>IssueReason</t>
   </si>
   <si>
@@ -96,9 +93,6 @@
     <t>Approved</t>
   </si>
   <si>
-    <t>Comments for Request for Information</t>
-  </si>
-  <si>
     <t>Request for Information</t>
   </si>
   <si>
@@ -106,6 +100,30 @@
   </si>
   <si>
     <t>Issued for Information</t>
+  </si>
+  <si>
+    <t>Submission</t>
+  </si>
+  <si>
+    <t>RefID</t>
+  </si>
+  <si>
+    <t>LATFLD-38</t>
+  </si>
+  <si>
+    <t>LATFLD-13</t>
+  </si>
+  <si>
+    <t>LATFLD-54</t>
+  </si>
+  <si>
+    <t>LATFLD-65</t>
+  </si>
+  <si>
+    <t>Rejected</t>
+  </si>
+  <si>
+    <t>LATFLD-55</t>
   </si>
 </sst>
 </file>
@@ -506,188 +524,238 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O5"/>
+  <dimension ref="A1:P6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A6" sqref="A6"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="28.42578125" customWidth="1"/>
-    <col min="2" max="2" width="20.85546875" customWidth="1"/>
-    <col min="3" max="3" width="21" customWidth="1"/>
-    <col min="4" max="4" width="13.28515625" customWidth="1"/>
-    <col min="5" max="5" width="21.28515625" customWidth="1"/>
-    <col min="6" max="6" width="18.7109375" customWidth="1"/>
-    <col min="7" max="7" width="16.85546875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="21.5703125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="24.140625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="28.7109375" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="27" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="25.85546875" customWidth="1"/>
-    <col min="13" max="13" width="13.28515625" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="11.42578125" customWidth="1"/>
-    <col min="15" max="15" width="13.28515625" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="20.7109375" customWidth="1"/>
+    <col min="1" max="1" width="10" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="28.42578125" customWidth="1"/>
+    <col min="3" max="3" width="20.85546875" customWidth="1"/>
+    <col min="4" max="4" width="21" customWidth="1"/>
+    <col min="5" max="5" width="13.28515625" customWidth="1"/>
+    <col min="6" max="6" width="21.28515625" customWidth="1"/>
+    <col min="7" max="7" width="22.7109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="16.85546875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="21.5703125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="24.140625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="28.7109375" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="27" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="25.85546875" customWidth="1"/>
+    <col min="14" max="14" width="13.28515625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="11.42578125" customWidth="1"/>
+    <col min="16" max="16" width="13.28515625" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="20.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" spans="1:16">
       <c r="A1" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16">
+      <c r="A2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D2" t="s">
+        <v>5</v>
+      </c>
+      <c r="E2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F2" t="s">
+        <v>16</v>
+      </c>
+      <c r="G2" t="s">
+        <v>26</v>
+      </c>
+      <c r="I2" t="s">
+        <v>18</v>
+      </c>
+      <c r="M2" t="s">
         <v>20</v>
       </c>
-      <c r="G1" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>10</v>
-      </c>
     </row>
-    <row r="2" spans="1:15">
-      <c r="A2" t="s">
+    <row r="3" spans="1:16">
+      <c r="A3" t="s">
+        <v>30</v>
+      </c>
+      <c r="B3" t="s">
+        <v>21</v>
+      </c>
+      <c r="C3" t="s">
         <v>22</v>
       </c>
-      <c r="B2" t="s">
+      <c r="D3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F3" t="s">
+        <v>16</v>
+      </c>
+      <c r="G3" t="s">
+        <v>17</v>
+      </c>
+      <c r="I3" t="s">
+        <v>18</v>
+      </c>
+      <c r="M3" t="s">
+        <v>20</v>
+      </c>
+      <c r="N3" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16">
+      <c r="A4" t="s">
+        <v>32</v>
+      </c>
+      <c r="B4" t="s">
+        <v>21</v>
+      </c>
+      <c r="C4" t="s">
+        <v>22</v>
+      </c>
+      <c r="D4" t="s">
+        <v>5</v>
+      </c>
+      <c r="E4" t="s">
+        <v>7</v>
+      </c>
+      <c r="F4" t="s">
+        <v>16</v>
+      </c>
+      <c r="G4" t="s">
+        <v>24</v>
+      </c>
+      <c r="I4" t="s">
+        <v>18</v>
+      </c>
+      <c r="M4" t="s">
+        <v>20</v>
+      </c>
+      <c r="N4" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16">
+      <c r="A5" t="s">
+        <v>31</v>
+      </c>
+      <c r="B5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C5" t="s">
+        <v>22</v>
+      </c>
+      <c r="D5" t="s">
+        <v>5</v>
+      </c>
+      <c r="E5" t="s">
+        <v>7</v>
+      </c>
+      <c r="F5" t="s">
+        <v>16</v>
+      </c>
+      <c r="G5" t="s">
+        <v>25</v>
+      </c>
+      <c r="I5" t="s">
+        <v>18</v>
+      </c>
+      <c r="M5" t="s">
+        <v>20</v>
+      </c>
+      <c r="N5" t="s">
         <v>23</v>
       </c>
-      <c r="C2" t="s">
+    </row>
+    <row r="6" spans="1:16">
+      <c r="A6" t="s">
+        <v>34</v>
+      </c>
+      <c r="B6" t="s">
+        <v>21</v>
+      </c>
+      <c r="C6" t="s">
+        <v>22</v>
+      </c>
+      <c r="D6" t="s">
         <v>5</v>
       </c>
-      <c r="D2" t="s">
+      <c r="E6" t="s">
         <v>7</v>
       </c>
-      <c r="E2" t="s">
+      <c r="F6" t="s">
         <v>16</v>
       </c>
-      <c r="F2" t="s">
-        <v>28</v>
-      </c>
-      <c r="H2" t="s">
+      <c r="G6" t="s">
+        <v>25</v>
+      </c>
+      <c r="I6" t="s">
         <v>18</v>
       </c>
-      <c r="L2" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15">
-      <c r="A3" t="s">
-        <v>22</v>
-      </c>
-      <c r="B3" t="s">
-        <v>23</v>
-      </c>
-      <c r="C3" t="s">
-        <v>5</v>
-      </c>
-      <c r="D3" t="s">
-        <v>7</v>
-      </c>
-      <c r="E3" t="s">
-        <v>16</v>
-      </c>
-      <c r="F3" t="s">
-        <v>17</v>
-      </c>
-      <c r="H3" t="s">
-        <v>18</v>
-      </c>
-      <c r="L3" t="s">
-        <v>21</v>
-      </c>
-      <c r="M3" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15">
-      <c r="A4" t="s">
-        <v>22</v>
-      </c>
-      <c r="B4" t="s">
-        <v>23</v>
-      </c>
-      <c r="C4" t="s">
-        <v>5</v>
-      </c>
-      <c r="D4" t="s">
-        <v>7</v>
-      </c>
-      <c r="E4" t="s">
-        <v>16</v>
-      </c>
-      <c r="F4" t="s">
-        <v>26</v>
-      </c>
-      <c r="H4" t="s">
-        <v>18</v>
-      </c>
-      <c r="L4" t="s">
-        <v>21</v>
-      </c>
-      <c r="M4" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15">
-      <c r="A5" t="s">
-        <v>22</v>
-      </c>
-      <c r="B5" t="s">
-        <v>23</v>
-      </c>
-      <c r="C5" t="s">
-        <v>5</v>
-      </c>
-      <c r="D5" t="s">
-        <v>7</v>
-      </c>
-      <c r="E5" t="s">
-        <v>16</v>
-      </c>
-      <c r="F5" t="s">
-        <v>27</v>
-      </c>
-      <c r="H5" t="s">
-        <v>18</v>
-      </c>
-      <c r="L5" t="s">
-        <v>21</v>
-      </c>
-      <c r="M5" t="s">
-        <v>24</v>
+      <c r="M6" t="s">
+        <v>20</v>
+      </c>
+      <c r="N6" t="s">
+        <v>33</v>
       </c>
     </row>
   </sheetData>

--- a/Fulcrum_FluidTX_Trunk/src/com/proj/suiteDOCS/testdata/DocumentRegistryTestData-Newtransmittal.xlsx
+++ b/Fulcrum_FluidTX_Trunk/src/com/proj/suiteDOCS/testdata/DocumentRegistryTestData-Newtransmittal.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\FluidTXGWS_Sprint5\Fulcrum_FluidTX_Trunk\src\com\proj\suiteDOCS\testdata\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GITWS_Fluid_S5_NR\Fulcrum_FluidTX_Trunk\src\com\proj\suiteDOCS\testdata\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -14,12 +14,12 @@
   <sheets>
     <sheet name="Transmittals_New" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="36">
   <si>
     <t>To</t>
   </si>
@@ -124,13 +124,16 @@
   </si>
   <si>
     <t>LATFLD-55</t>
+  </si>
+  <si>
+    <t>Mess</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -145,6 +148,12 @@
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="134"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Segoe UI"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="3">
@@ -175,9 +184,12 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -524,10 +536,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:P6"/>
+  <dimension ref="A1:Q6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="M6" sqref="M6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
@@ -544,14 +556,15 @@
     <col min="10" max="10" width="24.140625" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="28.7109375" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="27" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="25.85546875" customWidth="1"/>
-    <col min="14" max="14" width="13.28515625" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="11.42578125" customWidth="1"/>
-    <col min="16" max="16" width="13.28515625" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="20.7109375" customWidth="1"/>
+    <col min="13" max="13" width="27" customWidth="1"/>
+    <col min="14" max="14" width="25.85546875" customWidth="1"/>
+    <col min="15" max="15" width="13.28515625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="11.42578125" customWidth="1"/>
+    <col min="17" max="17" width="13.28515625" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="20.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16">
+    <row r="1" spans="1:17">
       <c r="A1" s="1" t="s">
         <v>28</v>
       </c>
@@ -592,16 +605,19 @@
         <v>4</v>
       </c>
       <c r="N1" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="O1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="P1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="Q1" s="1" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:16">
+    <row r="2" spans="1:17">
       <c r="A2" t="s">
         <v>29</v>
       </c>
@@ -626,11 +642,15 @@
       <c r="I2" t="s">
         <v>18</v>
       </c>
-      <c r="M2" t="s">
+      <c r="M2" s="2" t="str">
+        <f>CONCATENATE(ROW()-1," of ",COUNTA(A2:A100)," ",N2)</f>
+        <v>1 of 5 Message for New transmittal</v>
+      </c>
+      <c r="N2" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="3" spans="1:16">
+    <row r="3" spans="1:17">
       <c r="A3" t="s">
         <v>30</v>
       </c>
@@ -655,14 +675,18 @@
       <c r="I3" t="s">
         <v>18</v>
       </c>
-      <c r="M3" t="s">
+      <c r="M3" s="2" t="str">
+        <f>CONCATENATE(ROW()-1," of ",COUNTA(A2:A100)," ",N2)</f>
+        <v>2 of 5 Message for New transmittal</v>
+      </c>
+      <c r="N3" t="s">
         <v>20</v>
       </c>
-      <c r="N3" t="s">
+      <c r="O3" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="4" spans="1:16">
+    <row r="4" spans="1:17">
       <c r="A4" t="s">
         <v>32</v>
       </c>
@@ -687,14 +711,18 @@
       <c r="I4" t="s">
         <v>18</v>
       </c>
-      <c r="M4" t="s">
+      <c r="M4" s="2" t="str">
+        <f>CONCATENATE(ROW()-1," of ",COUNTA(A2:A100)," ",N2)</f>
+        <v>3 of 5 Message for New transmittal</v>
+      </c>
+      <c r="N4" t="s">
         <v>20</v>
       </c>
-      <c r="N4" t="s">
+      <c r="O4" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="5" spans="1:16">
+    <row r="5" spans="1:17">
       <c r="A5" t="s">
         <v>31</v>
       </c>
@@ -719,14 +747,18 @@
       <c r="I5" t="s">
         <v>18</v>
       </c>
-      <c r="M5" t="s">
+      <c r="M5" s="2" t="str">
+        <f>CONCATENATE(ROW()-1," of ",COUNTA(A2:A100)," ",N2)</f>
+        <v>4 of 5 Message for New transmittal</v>
+      </c>
+      <c r="N5" t="s">
         <v>20</v>
       </c>
-      <c r="N5" t="s">
+      <c r="O5" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="6" spans="1:16">
+    <row r="6" spans="1:17">
       <c r="A6" t="s">
         <v>34</v>
       </c>
@@ -751,16 +783,20 @@
       <c r="I6" t="s">
         <v>18</v>
       </c>
-      <c r="M6" t="s">
+      <c r="M6" s="2" t="str">
+        <f>CONCATENATE(ROW()-1," of ",COUNTA(A2:A100)," ",N2)</f>
+        <v>5 of 5 Message for New transmittal</v>
+      </c>
+      <c r="N6" t="s">
         <v>20</v>
       </c>
-      <c r="N6" t="s">
+      <c r="O6" t="s">
         <v>33</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <headerFooter alignWithMargins="0"/>
 </worksheet>
 </file>
--- a/Fulcrum_FluidTX_Trunk/src/com/proj/suiteDOCS/testdata/DocumentRegistryTestData-Newtransmittal.xlsx
+++ b/Fulcrum_FluidTX_Trunk/src/com/proj/suiteDOCS/testdata/DocumentRegistryTestData-Newtransmittal.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
-  <workbookPr/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr updateLinks="always"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GITWS_Fluid_S5_NR\Fulcrum_FluidTX_Trunk\src\com\proj\suiteDOCS\testdata\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\FluidTXGWS_Sprint5\Fulcrum_FluidTX_Trunk\src\com\proj\suiteDOCS\testdata\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -14,12 +14,15 @@
   <sheets>
     <sheet name="Transmittals_New" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <externalReferences>
+    <externalReference r:id="rId2"/>
+  </externalReferences>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="33">
   <si>
     <t>To</t>
   </si>
@@ -75,19 +78,10 @@
     <t>Issued for Review</t>
   </si>
   <si>
-    <t>Test 1 ta.docx</t>
-  </si>
-  <si>
     <t>IssueReason</t>
   </si>
   <si>
     <t>Message for New transmittal</t>
-  </si>
-  <si>
-    <t>AutoTestAdmin</t>
-  </si>
-  <si>
-    <t>AutoTestUser</t>
   </si>
   <si>
     <t>Approved</t>
@@ -132,7 +126,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="3">
     <font>
       <sz val="11"/>
@@ -205,6 +199,38 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="user_credentials"/>
+      <sheetName val="DocumentDetails"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0">
+        <row r="3">
+          <cell r="B3" t="str">
+            <v>AutoTestAdmin</v>
+          </cell>
+        </row>
+        <row r="4">
+          <cell r="B4" t="str">
+            <v>AutoTestUser</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="1">
+        <row r="3">
+          <cell r="B3" t="str">
+            <v>Test 1 ta.docx</v>
+          </cell>
+        </row>
+      </sheetData>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -538,9 +564,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q6"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="M6" sqref="M6"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
   <cols>
@@ -566,7 +590,7 @@
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" s="1" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
@@ -584,7 +608,7 @@
         <v>6</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="H1" s="1" t="s">
         <v>15</v>
@@ -605,7 +629,7 @@
         <v>4</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="O1" s="1" t="s">
         <v>8</v>
@@ -619,13 +643,15 @@
     </row>
     <row r="2" spans="1:17">
       <c r="A2" t="s">
-        <v>29</v>
-      </c>
-      <c r="B2" t="s">
-        <v>21</v>
-      </c>
-      <c r="C2" t="s">
-        <v>22</v>
+        <v>26</v>
+      </c>
+      <c r="B2" t="str">
+        <f>[1]user_credentials!$B$3</f>
+        <v>AutoTestAdmin</v>
+      </c>
+      <c r="C2" t="str">
+        <f>[1]user_credentials!$B$4</f>
+        <v>AutoTestUser</v>
       </c>
       <c r="D2" t="s">
         <v>5</v>
@@ -637,28 +663,31 @@
         <v>16</v>
       </c>
       <c r="G2" t="s">
-        <v>26</v>
-      </c>
-      <c r="I2" t="s">
-        <v>18</v>
+        <v>23</v>
+      </c>
+      <c r="I2" t="str">
+        <f>[1]DocumentDetails!$B$3</f>
+        <v>Test 1 ta.docx</v>
       </c>
       <c r="M2" s="2" t="str">
         <f>CONCATENATE(ROW()-1," of ",COUNTA(A2:A100)," ",N2)</f>
         <v>1 of 5 Message for New transmittal</v>
       </c>
       <c r="N2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="3" spans="1:17">
       <c r="A3" t="s">
-        <v>30</v>
-      </c>
-      <c r="B3" t="s">
-        <v>21</v>
-      </c>
-      <c r="C3" t="s">
-        <v>22</v>
+        <v>27</v>
+      </c>
+      <c r="B3" t="str">
+        <f>[1]user_credentials!$B$3</f>
+        <v>AutoTestAdmin</v>
+      </c>
+      <c r="C3" t="str">
+        <f>[1]user_credentials!$B$4</f>
+        <v>AutoTestUser</v>
       </c>
       <c r="D3" t="s">
         <v>5</v>
@@ -672,29 +701,32 @@
       <c r="G3" t="s">
         <v>17</v>
       </c>
-      <c r="I3" t="s">
-        <v>18</v>
+      <c r="I3" t="str">
+        <f>[1]DocumentDetails!$B$3</f>
+        <v>Test 1 ta.docx</v>
       </c>
       <c r="M3" s="2" t="str">
         <f>CONCATENATE(ROW()-1," of ",COUNTA(A2:A100)," ",N2)</f>
         <v>2 of 5 Message for New transmittal</v>
       </c>
       <c r="N3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="O3" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
     </row>
     <row r="4" spans="1:17">
       <c r="A4" t="s">
-        <v>32</v>
-      </c>
-      <c r="B4" t="s">
-        <v>21</v>
-      </c>
-      <c r="C4" t="s">
-        <v>22</v>
+        <v>29</v>
+      </c>
+      <c r="B4" t="str">
+        <f>[1]user_credentials!$B$3</f>
+        <v>AutoTestAdmin</v>
+      </c>
+      <c r="C4" t="str">
+        <f>[1]user_credentials!$B$4</f>
+        <v>AutoTestUser</v>
       </c>
       <c r="D4" t="s">
         <v>5</v>
@@ -706,31 +738,34 @@
         <v>16</v>
       </c>
       <c r="G4" t="s">
-        <v>24</v>
-      </c>
-      <c r="I4" t="s">
-        <v>18</v>
+        <v>21</v>
+      </c>
+      <c r="I4" t="str">
+        <f>[1]DocumentDetails!$B$3</f>
+        <v>Test 1 ta.docx</v>
       </c>
       <c r="M4" s="2" t="str">
         <f>CONCATENATE(ROW()-1," of ",COUNTA(A2:A100)," ",N2)</f>
         <v>3 of 5 Message for New transmittal</v>
       </c>
       <c r="N4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="O4" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
     </row>
     <row r="5" spans="1:17">
       <c r="A5" t="s">
-        <v>31</v>
-      </c>
-      <c r="B5" t="s">
-        <v>21</v>
-      </c>
-      <c r="C5" t="s">
-        <v>22</v>
+        <v>28</v>
+      </c>
+      <c r="B5" t="str">
+        <f>[1]user_credentials!$B$3</f>
+        <v>AutoTestAdmin</v>
+      </c>
+      <c r="C5" t="str">
+        <f>[1]user_credentials!$B$4</f>
+        <v>AutoTestUser</v>
       </c>
       <c r="D5" t="s">
         <v>5</v>
@@ -742,31 +777,34 @@
         <v>16</v>
       </c>
       <c r="G5" t="s">
-        <v>25</v>
-      </c>
-      <c r="I5" t="s">
-        <v>18</v>
+        <v>22</v>
+      </c>
+      <c r="I5" t="str">
+        <f>[1]DocumentDetails!$B$3</f>
+        <v>Test 1 ta.docx</v>
       </c>
       <c r="M5" s="2" t="str">
         <f>CONCATENATE(ROW()-1," of ",COUNTA(A2:A100)," ",N2)</f>
         <v>4 of 5 Message for New transmittal</v>
       </c>
       <c r="N5" t="s">
+        <v>19</v>
+      </c>
+      <c r="O5" t="s">
         <v>20</v>
-      </c>
-      <c r="O5" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="6" spans="1:17">
       <c r="A6" t="s">
-        <v>34</v>
-      </c>
-      <c r="B6" t="s">
-        <v>21</v>
-      </c>
-      <c r="C6" t="s">
-        <v>22</v>
+        <v>31</v>
+      </c>
+      <c r="B6" t="str">
+        <f>[1]user_credentials!$B$3</f>
+        <v>AutoTestAdmin</v>
+      </c>
+      <c r="C6" t="str">
+        <f>[1]user_credentials!$B$4</f>
+        <v>AutoTestUser</v>
       </c>
       <c r="D6" t="s">
         <v>5</v>
@@ -778,20 +816,21 @@
         <v>16</v>
       </c>
       <c r="G6" t="s">
-        <v>25</v>
-      </c>
-      <c r="I6" t="s">
-        <v>18</v>
+        <v>22</v>
+      </c>
+      <c r="I6" t="str">
+        <f>[1]DocumentDetails!$B$3</f>
+        <v>Test 1 ta.docx</v>
       </c>
       <c r="M6" s="2" t="str">
         <f>CONCATENATE(ROW()-1," of ",COUNTA(A2:A100)," ",N2)</f>
         <v>5 of 5 Message for New transmittal</v>
       </c>
       <c r="N6" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="O6" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
     </row>
   </sheetData>
